--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3296.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3296.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.20576009316209</v>
+        <v>0.8066960573196411</v>
       </c>
       <c r="B1">
-        <v>2.534501685060446</v>
+        <v>0.6395947933197021</v>
       </c>
       <c r="C1">
-        <v>3.168615437473157</v>
+        <v>2.206688404083252</v>
       </c>
       <c r="D1">
-        <v>3.102666981891006</v>
+        <v>3.396670341491699</v>
       </c>
       <c r="E1">
-        <v>1.057860748239611</v>
+        <v>1.429866313934326</v>
       </c>
     </row>
   </sheetData>
